--- a/excel-files-app/devdata/excel-2.xlsx
+++ b/excel-files-app/devdata/excel-2.xlsx
@@ -10,6 +10,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 21" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 23" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 24" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 27" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -1598,7 +1603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,28 +1664,158 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1723,4 +1858,94 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>